--- a/server/apps/dcis/tests/resources/period_unload_services/test_unload_children.xlsx
+++ b/server/apps/dcis/tests/resources/period_unload_services/test_unload_children.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\squak\projects\dcis\server\apps\dcis\tests\resources\period_unload_services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFA0379-F419-437E-8D88-2CB78876AB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD8B4F0-A8BF-4C53-BEF1-D59254705371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65F74457-28EC-4A65-BBA0-58CA38A4A742}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>IdListEdu</t>
   </si>
@@ -148,21 +148,15 @@
   </si>
   <si>
     <t>Значение 4</t>
-  </si>
-  <si>
-    <t>15.01.2023 00:00</t>
-  </si>
-  <si>
-    <t>16.01.2023 00:00</t>
-  </si>
-  <si>
-    <t>14.01.2023 00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,8 +188,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,12 +507,12 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -549,12 +543,12 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
       <c r="R1" t="s">
         <v>9</v>
       </c>
@@ -563,20 +557,20 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
@@ -653,8 +647,8 @@
       <c r="P4" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>40</v>
+      <c r="R4" s="2">
+        <v>44940</v>
       </c>
       <c r="S4" t="s">
         <v>13</v>
@@ -709,8 +703,8 @@
       <c r="P5" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>38</v>
+      <c r="R5" s="2">
+        <v>44941</v>
       </c>
       <c r="S5" t="s">
         <v>13</v>
@@ -765,8 +759,8 @@
       <c r="P6" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>39</v>
+      <c r="R6" s="2">
+        <v>44942</v>
       </c>
       <c r="S6" t="s">
         <v>13</v>

--- a/server/apps/dcis/tests/resources/period_unload_services/test_unload_children.xlsx
+++ b/server/apps/dcis/tests/resources/period_unload_services/test_unload_children.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\squak\projects\dcis\server\apps\dcis\tests\resources\period_unload_services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD8B4F0-A8BF-4C53-BEF1-D59254705371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5808E00-3E2A-4B06-A029-E4FFB05A8F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65F74457-28EC-4A65-BBA0-58CA38A4A742}"/>
   </bookViews>
@@ -188,8 +188,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection activeCell="S1" sqref="S1:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,63 +516,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="R1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" t="s">
         <v>11</v>
       </c>
@@ -597,6 +621,8 @@
       <c r="Q3" t="s">
         <v>12</v>
       </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -647,7 +673,7 @@
       <c r="P4" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>44940</v>
       </c>
       <c r="S4" t="s">
@@ -703,7 +729,7 @@
       <c r="P5" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>44941</v>
       </c>
       <c r="S5" t="s">
@@ -759,7 +785,7 @@
       <c r="P6" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>44942</v>
       </c>
       <c r="S6" t="s">
@@ -767,11 +793,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="15">
+    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/server/apps/dcis/tests/resources/period_unload_services/test_unload_children.xlsx
+++ b/server/apps/dcis/tests/resources/period_unload_services/test_unload_children.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\squak\projects\dcis\server\apps\dcis\tests\resources\period_unload_services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5808E00-3E2A-4B06-A029-E4FFB05A8F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155EEE56-2E84-4FAE-8D9A-0412194F9288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65F74457-28EC-4A65-BBA0-58CA38A4A742}"/>
   </bookViews>
@@ -186,10 +186,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,7 +512,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S3"/>
+      <selection sqref="A1:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,28 +602,28 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="R3" s="2"/>
@@ -794,21 +799,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="N1:Q2"/>
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
